--- a/biology/Botanique/Aesculus/Aesculus.xlsx
+++ b/biology/Botanique/Aesculus/Aesculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aesculus est un genre d'arbres de la famille des Sapindaceae comprenant une trentaine d'espèces originaires de l'hémisphère nord (Eurasie et Amérique du Nord). Ce genre comprend les différentes espèces de marronniers et de paviers, souvent cultivés comme arbres d'ornement.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme aesculus désignait chez les Latins un genre de chêne[1]. Quant au terme hippocastanum, qui correspond à l'espèce « marronnier d'Inde », il signifie « châtaigne à chevaux ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme aesculus désignait chez les Latins un genre de chêne. Quant au terme hippocastanum, qui correspond à l'espèce « marronnier d'Inde », il signifie « châtaigne à chevaux ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont originaires de l'hémisphère nord, principalement d'Asie (sous-continent indien, Extrême-Orient), Europe du Sud-Est (Balkans), ainsi que d'Amérique du Nord (spécialement pour les espèces connues sous le nom de « pavier »).
 </t>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce genre est classé dans l'ordre des Sapindales. Il faisait partie de la famille des Hippocastanaceae dans la classification de Cronquist, mais la classification APG III a intégré cette dernière à celle des Sapindaceae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est classé dans l'ordre des Sapindales. Il faisait partie de la famille des Hippocastanaceae dans la classification de Cronquist, mais la classification APG III a intégré cette dernière à celle des Sapindaceae.
 Une dizaine d'espèces, originaires d'Amérique du Nord, ont été classées par certains auteurs dans un genre distinct, Pavia Mill., avant d'être regroupées dans le genre Aesculus[réf. nécessaire].
 	Quelques espèces du genre
 			Aesculus hippocastanum
@@ -584,8 +602,43 @@
 			Aesculus indica
 			Aesculus flava
 			Aesculus turbinata
-Liste d'espèces
-Selon GRIN            (19 avril 2017)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (19 avril 2017) :
 Aesculus assamica Griff.
 Aesculus californica (Spach) Nutt.
 Aesculus × carnea Hayne
@@ -601,7 +654,7 @@
 Aesculus pavia L.
 Aesculus sylvatica W. Bartram
 Aesculus turbinata Blume
-Selon The Plant List            (19 avril 2017)[3] :
+Selon The Plant List            (19 avril 2017) :
 Aesculus assamica Griff.
 Aesculus bushii C.K.Schneid.
 Aesculus californica (Spach) Nutt.
@@ -626,7 +679,7 @@
 Aesculus turbinata Blume
 Aesculus wangii Hu
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (19 avril 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 Aesculus alba Raf.
 Aesculus arguta Buckley
 Aesculus asplenifolia Loudon
@@ -698,22 +751,172 @@
 Aesculus × mutabilis Schelle
 Aesculus × neglecta Lindl.
 Aesculus × plantierensis André
-Principales espèces
-Le genre est subdivisé en cinq sections botaniques : la section hippocastanum, la section calothyrsus, la section pavia, la section macrothyrsus et la section parryanae. Auxquelles il faut ajouter des hybrides et une chimère.
-Section hippocastanum
-La section hippocastanum regroupe les marronniers qui ont des bourgeons visqueux, des folioles sessiles et dont les fruits sont hérissés de pointes ou sont turbinés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est subdivisé en cinq sections botaniques : la section hippocastanum, la section calothyrsus, la section pavia, la section macrothyrsus et la section parryanae. Auxquelles il faut ajouter des hybrides et une chimère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Section hippocastanum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La section hippocastanum regroupe les marronniers qui ont des bourgeons visqueux, des folioles sessiles et dont les fruits sont hérissés de pointes ou sont turbinés
 Aesculus hippocastanum L., le marronnier commun ou marronnier d'Inde
 Aesculus × carnea Hayne, le marronnier à fleurs rouges
-Aesculus turbinata Blume, le marronnier du Japon
-Section calothyrsus
-La section calothyrsus regroupe les marronniers qui ont des bourgeons visqueux, les folioles pétiolées, les fruits non épineux et piriformes
+Aesculus turbinata Blume, le marronnier du Japon</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Section calothyrsus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La section calothyrsus regroupe les marronniers qui ont des bourgeons visqueux, les folioles pétiolées, les fruits non épineux et piriformes
 Aesculus assamica Griff.
 Aesculus californica (Spach) Nutt., le pavier de Californie
 Aesculus chinensis Bunge
 Aesculus indica (Wall. ex Cambess.) Hook., le marronnier de l'Himalaya
-Aesculus wilsonii ou marronnier de Wilson
-Section pavia
-La section pavia regroupe les marronniers anciennement classés parmi les paviers (stricto sensu). Les bourgeons sont non visqueux, les folioles sont pétiolées, les fruits sont lisses.
+Aesculus wilsonii ou marronnier de Wilson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Section pavia</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La section pavia regroupe les marronniers anciennement classés parmi les paviers (stricto sensu). Les bourgeons sont non visqueux, les folioles sont pétiolées, les fruits sont lisses.
 Aesculus discolor
 Aesculus flava Sol., le pavier jaune ou marronnier à fleurs jaunes
 Aesculus × hybrida DC., le marronnier hybride
@@ -721,15 +924,129 @@
 Aesculus × neglecta Lindl.
 Aesculus pavia L., le pavier rouge ou marronnier de Virginie
 Aesculus splendens
-Aesculus sylvatica W. Bartram
-Section macrothyrsus
-La section macrothyrsus  ne comporte qu'une espèce aux bourgeons non visqueux, aux folioles subsessiles et aux fruits lisses
-Aesculus parviflora Walter
-Section parryanae
-La section parryanae ne comporte qu'une espèce aux bourgeons non visqueux, aux folioles sessiles et aux fruits tomenteux et verruqueux.
-Aesculus parry
-Hybrides et chimère
-Aesculus × arnoldianna
+Aesculus sylvatica W. Bartram</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Section macrothyrsus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La section macrothyrsus  ne comporte qu'une espèce aux bourgeons non visqueux, aux folioles subsessiles et aux fruits lisses
+Aesculus parviflora Walter</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Section parryanae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La section parryanae ne comporte qu'une espèce aux bourgeons non visqueux, aux folioles sessiles et aux fruits tomenteux et verruqueux.
+Aesculus parry</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hybrides et chimère</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aesculus × arnoldianna
 Aesculus × bushii
 Aesculus × carnea Hayne =A. hippocastanatum × A. pavia — le Marronnier à fleurs rouges.
 Aesculus + dallimorei une chimère entre A. hippocastanum et A. flava
@@ -744,71 +1061,183 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aesculus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbres ornementaux
-Vu le nombre d'espèces, de variétés et de cultivars, les usages ornementaux ou en architecture paysagère sont importants : on peut les utiliser comme plantes écrans, comme rideau de verdure, comme plante d'alignement, en association avec d'autres plantes, en isolés.
-Alimentation humaine
-Malgré leur richesse en tanins et en saponines toxiques, les fruits de certaines espèces d’Aesculus ont été consommés pour l'alimentation humaine après une préparation spécifique des graines (parviflora et aesculus indica)[5],[6].
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Arbres ornementaux</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vu le nombre d'espèces, de variétés et de cultivars, les usages ornementaux ou en architecture paysagère sont importants : on peut les utiliser comme plantes écrans, comme rideau de verdure, comme plante d'alignement, en association avec d'autres plantes, en isolés.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aesculus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Alimentation humaine</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré leur richesse en tanins et en saponines toxiques, les fruits de certaines espèces d’Aesculus ont été consommés pour l'alimentation humaine après une préparation spécifique des graines (parviflora et aesculus indica),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Phytopathologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marronnier est en général une essence résistante aux maladies et aux parasites mais il arrive parfois qu'il soit attaqué. Ces attaques ont généralement lieu en pépinière car il y a une plus grande concentration de plantes.
-Maladie bactérienne
-Chancre bactérien du marronnier, dû à des pathovars du Pseudomonas syringae.
-Maladies cryptogamiques
-Quelques maladies cryptogamiques :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Phytopathologie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Maladie bactérienne</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chancre bactérien du marronnier, dû à des pathovars du Pseudomonas syringae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phytopathologie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Maladies cryptogamiques</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Quelques maladies cryptogamiques :
 Guignardia aesculi ou black-rot du marronnier :
 Très commun en pépinières, il s'attaque principalement à Aesculus hippocastanum et à Aesculus × carnea. Le champignon se développe en avril-mai lorsque les précipitations ont été importantes : de petites taches jaune clair aux contours irréguliers apparaissent sur les feuilles. Par la suite, les taches s'étendent, prennent une couleur brun rougeâtre et les feuilles s'enroulent en cornet et tombent prématurément. Il peut compromettre le développement des jeunes plants.
 Nectria cinnabarina ou nécrose du bois du marronnier:
@@ -825,13 +1254,82 @@
 Ce champignon laisse un fin duvet blanchâtre sur la face inférieure des feuilles : il s'attaque principalement aux paviers. On lutte contre ce champignon principalement à l'aide de soufre micronisé.
 Uncinula flexuosa ou oïdium du marronnier
 Ce champignon laisse un fin duvet blanchâtre sur la face inférieure des feuilles : il s'attaque principalement au marronnier commun. On lutte contre ce champignon principalement à l'aide de soufre micronisé.
-Phyllosticta paviae: Maladie des taches foliaires du marronnier.
-Virus
-Virus signalé :
+Phyllosticta paviae: Maladie des taches foliaires du marronnier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Phytopathologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virus signalé :
 strawberry latent ring spot virus ou S.L.R.S.V.
 Ce virus s'attaque à Aesculus × carnea, les feuilles présentent alors un motif rayé. La transmission s'effectue par un nématode le Xyphinema diversicaudatum, par inoculation mécanique, lors du greffage ou encore par les graines (si l'arbre est infecté). Les seuls moyens de lutte sont la désinfection du sol et la suppression des adventices.
-Insectes
-Quelques insectes s'attaquant aux espèces de ce genre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phytopathologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Quelques insectes s'attaquant aux espèces de ce genre :
 Cossus cossus : la chenille rougeâtre, de 5 à 10 cm de long, de ce lépidoptère s'attaque aux troncs ou aux branches des arbres qu'elle creuse. Les orifices laissent suinter des déjections mélangées à de la sciure.
 Zeuzera pyrina, une zeuzère
 Acronicta aceris ou noctuelle des érables
@@ -839,9 +1337,43 @@
 Alebra wahlbergi, une cicadelle
 Eupulvenaria regalis ou pulvinaire du marronnier d'Inde
 Eulecanium tiliae ou cochenille à carapace du noisetier
-Barypheites araneiformis ou charançon du collet du trèfles
-Acarien
-Acarien signalé :
+Barypheites araneiformis ou charançon du collet du trèfles</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Aesculus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aesculus</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Phytopathologie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acarien</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acarien signalé :
 Tegonotus carinatus ou phytope du marronnier
 </t>
         </is>
